--- a/excel_files/case_outreach_age.xlsx
+++ b/excel_files/case_outreach_age.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
